--- a/Docs/Progress.xlsx
+++ b/Docs/Progress.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>SiteMap</t>
-  </si>
-  <si>
-    <t>almost done, adjust present fields' order</t>
   </si>
   <si>
     <t>System Architecture &amp; infrastructure</t>
@@ -237,6 +234,13 @@
   </si>
   <si>
     <t>bonus point</t>
+  </si>
+  <si>
+    <t>almost done, adjust present fields' order
+add a button [print attendsheet]</t>
+  </si>
+  <si>
+    <t>like iss homepage</t>
   </si>
 </sst>
 </file>
@@ -836,7 +840,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -881,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,7 +933,9 @@
       <c r="G4" s="16">
         <v>42168</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
@@ -1112,7 +1118,7 @@
         <v>42168</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1296,7 +1302,7 @@
         <v>42168</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1320,7 +1326,7 @@
         <v>42168</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1378,8 +1384,8 @@
       <c r="D24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>8</v>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>16</v>
@@ -1422,8 +1428,12 @@
       <c r="D26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="16">
         <v>42168</v>
       </c>
@@ -1462,8 +1472,8 @@
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>8</v>
+      <c r="E28" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>16</v>
@@ -1482,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>19</v>
@@ -1504,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>19</v>
@@ -1526,7 +1536,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>19</v>
@@ -1553,7 +1563,7 @@
     </row>
     <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1591,10 +1601,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>19</v>
@@ -1613,10 +1623,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>19</v>
@@ -1631,26 +1641,26 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
-        <f t="shared" ref="B38:B44" si="1">ROW()-2</f>
+        <f t="shared" ref="B38:B43" si="1">ROW()-2</f>
         <v>36</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="16">
-        <v>42168</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1659,16 +1669,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="16">
         <v>42168</v>
@@ -1681,16 +1691,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="E40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="16">
         <v>42168</v>
@@ -1703,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>8</v>
@@ -1725,22 +1735,22 @@
         <v>40</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" s="16">
         <v>42168</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,7 +1762,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>8</v>
@@ -1776,7 +1786,7 @@
     </row>
     <row r="47" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Progress.xlsx
+++ b/Docs/Progress.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="20150610" sheetId="1" r:id="rId1"/>
+    <sheet name="20150621" sheetId="2" r:id="rId1"/>
+    <sheet name="20150610" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20150610'!$A$2:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20150610'!$A$2:$J$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -241,17 +242,21 @@
   </si>
   <si>
     <t>like iss homepage</t>
+  </si>
+  <si>
+    <t>WCF Security</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +264,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -267,8 +272,15 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -535,7 +547,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -551,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,10 +637,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,7 +671,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,33 +846,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2"/>
+    <col min="3" max="3" width="25.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="60" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -891,7 +901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
@@ -902,8 +912,8 @@
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
+      <c r="E3" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>10</v>
@@ -913,7 +923,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="13">
         <f>ROW()-2</f>
         <v>2</v>
@@ -937,7 +947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="13">
         <f t="shared" ref="B5:B32" si="0">ROW()-2</f>
         <v>3</v>
@@ -961,7 +971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -983,7 +993,7 @@
       </c>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1007,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1029,7 +1039,7 @@
       </c>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1051,7 +1061,7 @@
       </c>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1073,7 +1083,7 @@
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1097,7 +1107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27">
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1121,7 +1131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1143,7 +1153,7 @@
       </c>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1154,8 +1164,8 @@
       <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>8</v>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>17</v>
@@ -1167,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1189,7 +1199,7 @@
       </c>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1213,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1224,8 +1234,8 @@
       <c r="D17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
+      <c r="E17" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>16</v>
@@ -1235,7 +1245,7 @@
       </c>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1257,7 +1267,7 @@
       </c>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1281,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="27">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1305,7 +1315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1329,7 +1339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1351,7 +1361,7 @@
       </c>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1373,7 +1383,7 @@
       </c>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1417,7 +1427,7 @@
       </c>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1439,7 +1449,7 @@
       </c>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1450,8 +1460,8 @@
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>8</v>
+      <c r="E27" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>18</v>
@@ -1461,7 +1471,7 @@
       </c>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1483,7 +1493,7 @@
       </c>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1505,7 +1515,7 @@
       </c>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1527,7 +1537,7 @@
       </c>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1549,7 +1559,7 @@
       </c>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1561,12 +1571,12 @@
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="22.5">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="B36" s="8">
         <f>ROW()-2</f>
         <v>34</v>
@@ -1617,7 +1627,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="B37" s="13">
         <f>ROW()-2</f>
         <v>35</v>
@@ -1639,7 +1649,7 @@
       </c>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="B38" s="13">
         <f t="shared" ref="B38:B43" si="1">ROW()-2</f>
         <v>36</v>
@@ -1651,7 +1661,7 @@
         <v>59</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>58</v>
@@ -1663,7 +1673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="B39" s="13">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1672,7 +1682,7 @@
         <v>53</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>8</v>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="B40" s="13">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1707,7 +1717,7 @@
       </c>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41" s="13">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1729,7 +1739,7 @@
       </c>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1753,7 +1763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1775,7 +1785,7 @@
       </c>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -1784,13 +1794,974 @@
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="22.5">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2"/>
+    <col min="3" max="3" width="25.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="8">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
+        <v>42168</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="13">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="13">
+        <f t="shared" ref="B5:B32" si="0">ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27">
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="27">
+      <c r="B20" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="34" spans="1:10" ht="22.5">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="8">
+        <f>ROW()-2</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="13">
+        <f>ROW()-2</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="13">
+        <f t="shared" ref="B38:B43" si="1">ROW()-2</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="13">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="13">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="13">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="16">
+        <v>42168</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="47" spans="1:10" ht="22.5">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <autoFilter ref="A2:J32"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
